--- a/Exercise2.xlsx
+++ b/Exercise2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrymiessan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henrymiessan/Desktop/Excel lesson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84374945-0217-5843-AFA6-2084E198F799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E2F10C-AC94-414E-8A2D-0FBA70170CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="26740" windowHeight="13760" xr2:uid="{F121BB0E-3890-0A47-A93E-49E4EE981301}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +84,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;GHS&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;GHS&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -160,7 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1459B0CA-4DAD-C944-85F8-AE58DD6FCF97}">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
